--- a/outputs/train-c__Spirochaetia.xlsx
+++ b/outputs/train-c__Spirochaetia.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="402">
   <si>
     <t>Row</t>
   </si>
@@ -1244,7 +1244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1262,11 +1262,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1278,6 +1288,16 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,33 +1321,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1353,7 +1373,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1379,7 +1399,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1405,7 +1425,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1431,7 +1451,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1457,7 +1477,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1483,7 +1503,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1509,7 +1529,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1535,7 +1555,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1561,7 +1581,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1587,7 +1607,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1613,7 +1633,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1639,7 +1659,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1665,7 +1685,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1691,7 +1711,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1717,7 +1737,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1743,7 +1763,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1769,7 +1789,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1795,7 +1815,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1821,7 +1841,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1847,7 +1867,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1873,7 +1893,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1899,7 +1919,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1925,7 +1945,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1951,7 +1971,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1977,7 +1997,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2003,7 +2023,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2029,7 +2049,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2055,7 +2075,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2081,7 +2101,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2107,7 +2127,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2133,7 +2153,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2159,7 +2179,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2185,7 +2205,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2211,7 +2231,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -2237,7 +2257,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -2263,7 +2283,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2289,7 +2309,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2315,7 +2335,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2341,7 +2361,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -2367,7 +2387,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -2393,7 +2413,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -2419,7 +2439,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -2445,7 +2465,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -2471,7 +2491,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -2497,7 +2517,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -2523,7 +2543,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -2549,7 +2569,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -2575,7 +2595,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -2601,7 +2621,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -2627,7 +2647,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -2653,7 +2673,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2679,7 +2699,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2705,7 +2725,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2731,7 +2751,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2757,7 +2777,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2783,7 +2803,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2809,7 +2829,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2835,7 +2855,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2861,7 +2881,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2887,7 +2907,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2913,7 +2933,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2939,7 +2959,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2965,7 +2985,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2991,7 +3011,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -3017,7 +3037,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -3043,7 +3063,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -3069,7 +3089,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -3095,7 +3115,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -3121,7 +3141,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -3147,7 +3167,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -3173,7 +3193,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -3199,7 +3219,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -3225,7 +3245,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -3251,7 +3271,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -3277,7 +3297,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -3303,7 +3323,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -3329,7 +3349,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -3374,33 +3394,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B2">
@@ -3426,7 +3446,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B3">
@@ -3452,7 +3472,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B4">
@@ -3478,7 +3498,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B5">
@@ -3504,7 +3524,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B6">
@@ -3530,7 +3550,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B7">
@@ -3556,7 +3576,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B8">
@@ -3582,7 +3602,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B9">
@@ -3608,7 +3628,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B10">
@@ -3634,7 +3654,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B11">
@@ -3660,7 +3680,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B12">
@@ -3686,7 +3706,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B13">
@@ -3712,7 +3732,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B14">
@@ -3738,7 +3758,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B15">
@@ -3764,7 +3784,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B16">
@@ -3790,7 +3810,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B17">
@@ -3816,7 +3836,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B18">
@@ -3842,7 +3862,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B19">
@@ -3868,7 +3888,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B20">
@@ -3894,7 +3914,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B21">
@@ -3920,7 +3940,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B22">
@@ -3946,7 +3966,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B23">
@@ -3972,7 +3992,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B24">
@@ -3998,7 +4018,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B25">
@@ -4024,7 +4044,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B26">
@@ -4050,7 +4070,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B27">
@@ -4076,7 +4096,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B28">
@@ -4102,7 +4122,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B29">
@@ -4128,7 +4148,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B30">
@@ -4154,7 +4174,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B31">
@@ -4180,7 +4200,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B32">
@@ -4206,7 +4226,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B33">
@@ -4232,7 +4252,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B34">
@@ -4258,7 +4278,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B35">
@@ -4284,7 +4304,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B36">
@@ -4310,7 +4330,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B37">
@@ -4336,7 +4356,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B38">
@@ -4362,7 +4382,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B39">
@@ -4388,7 +4408,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B40">
@@ -4414,7 +4434,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B41">
@@ -4440,7 +4460,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B42">
@@ -4466,7 +4486,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B43">
@@ -4492,7 +4512,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B44">
@@ -4518,7 +4538,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B45">
@@ -4544,7 +4564,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B46">
@@ -4570,7 +4590,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B47">
@@ -4596,7 +4616,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B48">
@@ -4622,7 +4642,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B49">
@@ -4648,7 +4668,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B50">
@@ -4674,7 +4694,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B51">
@@ -4700,7 +4720,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B52">
@@ -4726,7 +4746,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B53">
@@ -4752,7 +4772,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B54">
@@ -4778,7 +4798,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B55">
@@ -4804,7 +4824,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B56">
@@ -4830,7 +4850,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B57">
@@ -4856,7 +4876,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B58">
@@ -4882,7 +4902,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B59">
@@ -4908,7 +4928,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B60">
@@ -4934,7 +4954,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B61">
@@ -4960,7 +4980,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B62">
@@ -4986,7 +5006,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="13" t="s">
         <v>147</v>
       </c>
       <c r="B63">
@@ -5012,7 +5032,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B64">
@@ -5038,7 +5058,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="13" t="s">
         <v>149</v>
       </c>
       <c r="B65">
@@ -5064,7 +5084,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B66">
@@ -5090,7 +5110,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B67">
@@ -5116,7 +5136,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B68">
@@ -5142,7 +5162,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B69">
@@ -5168,7 +5188,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="13" t="s">
         <v>154</v>
       </c>
       <c r="B70">
@@ -5194,7 +5214,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="13" t="s">
         <v>155</v>
       </c>
       <c r="B71">
@@ -5220,7 +5240,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="13" t="s">
         <v>156</v>
       </c>
       <c r="B72">
@@ -5246,7 +5266,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B73">
@@ -5272,7 +5292,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="13" t="s">
         <v>158</v>
       </c>
       <c r="B74">
@@ -5298,7 +5318,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="13" t="s">
         <v>159</v>
       </c>
       <c r="B75">
@@ -5324,7 +5344,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B76">
@@ -5350,7 +5370,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B77">
@@ -5376,7 +5396,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="13" t="s">
         <v>162</v>
       </c>
       <c r="B78">
@@ -5402,7 +5422,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B79">
@@ -5428,7 +5448,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B80">
@@ -5473,33 +5493,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B2">
@@ -5525,7 +5545,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B3">
@@ -5551,7 +5571,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="15" t="s">
         <v>167</v>
       </c>
       <c r="B4">
@@ -5577,7 +5597,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B5">
@@ -5603,7 +5623,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>169</v>
       </c>
       <c r="B6">
@@ -5629,7 +5649,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>170</v>
       </c>
       <c r="B7">
@@ -5655,7 +5675,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="15" t="s">
         <v>171</v>
       </c>
       <c r="B8">
@@ -5681,7 +5701,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B9">
@@ -5707,7 +5727,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="15" t="s">
         <v>173</v>
       </c>
       <c r="B10">
@@ -5733,7 +5753,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B11">
@@ -5759,7 +5779,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B12">
@@ -5785,7 +5805,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="15" t="s">
         <v>176</v>
       </c>
       <c r="B13">
@@ -5811,7 +5831,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="15" t="s">
         <v>177</v>
       </c>
       <c r="B14">
@@ -5837,7 +5857,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="15" t="s">
         <v>178</v>
       </c>
       <c r="B15">
@@ -5863,7 +5883,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="15" t="s">
         <v>179</v>
       </c>
       <c r="B16">
@@ -5889,7 +5909,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="15" t="s">
         <v>180</v>
       </c>
       <c r="B17">
@@ -5915,7 +5935,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B18">
@@ -5941,7 +5961,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="15" t="s">
         <v>182</v>
       </c>
       <c r="B19">
@@ -5967,7 +5987,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="15" t="s">
         <v>183</v>
       </c>
       <c r="B20">
@@ -5993,7 +6013,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B21">
@@ -6019,7 +6039,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="15" t="s">
         <v>185</v>
       </c>
       <c r="B22">
@@ -6045,7 +6065,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B23">
@@ -6071,7 +6091,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="15" t="s">
         <v>187</v>
       </c>
       <c r="B24">
@@ -6097,7 +6117,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="15" t="s">
         <v>188</v>
       </c>
       <c r="B25">
@@ -6123,7 +6143,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B26">
@@ -6149,7 +6169,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B27">
@@ -6175,7 +6195,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="15" t="s">
         <v>191</v>
       </c>
       <c r="B28">
@@ -6201,7 +6221,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="15" t="s">
         <v>192</v>
       </c>
       <c r="B29">
@@ -6227,7 +6247,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B30">
@@ -6253,7 +6273,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="15" t="s">
         <v>194</v>
       </c>
       <c r="B31">
@@ -6279,7 +6299,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="15" t="s">
         <v>195</v>
       </c>
       <c r="B32">
@@ -6305,7 +6325,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B33">
@@ -6331,7 +6351,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B34">
@@ -6357,7 +6377,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="15" t="s">
         <v>198</v>
       </c>
       <c r="B35">
@@ -6383,7 +6403,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="15" t="s">
         <v>199</v>
       </c>
       <c r="B36">
@@ -6409,7 +6429,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B37">
@@ -6435,7 +6455,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B38">
@@ -6461,7 +6481,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B39">
@@ -6487,7 +6507,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="15" t="s">
         <v>203</v>
       </c>
       <c r="B40">
@@ -6513,7 +6533,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="15" t="s">
         <v>204</v>
       </c>
       <c r="B41">
@@ -6539,7 +6559,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="15" t="s">
         <v>205</v>
       </c>
       <c r="B42">
@@ -6565,7 +6585,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B43">
@@ -6591,7 +6611,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="15" t="s">
         <v>207</v>
       </c>
       <c r="B44">
@@ -6617,7 +6637,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B45">
@@ -6643,7 +6663,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B46">
@@ -6669,7 +6689,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B47">
@@ -6695,7 +6715,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="15" t="s">
         <v>211</v>
       </c>
       <c r="B48">
@@ -6721,7 +6741,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B49">
@@ -6747,7 +6767,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="15" t="s">
         <v>213</v>
       </c>
       <c r="B50">
@@ -6773,7 +6793,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B51">
@@ -6799,7 +6819,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="15" t="s">
         <v>215</v>
       </c>
       <c r="B52">
@@ -6825,7 +6845,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="15" t="s">
         <v>216</v>
       </c>
       <c r="B53">
@@ -6851,7 +6871,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="15" t="s">
         <v>217</v>
       </c>
       <c r="B54">
@@ -6877,7 +6897,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="15" t="s">
         <v>218</v>
       </c>
       <c r="B55">
@@ -6903,7 +6923,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B56">
@@ -6929,7 +6949,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="15" t="s">
         <v>220</v>
       </c>
       <c r="B57">
@@ -6955,7 +6975,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="15" t="s">
         <v>221</v>
       </c>
       <c r="B58">
@@ -6981,7 +7001,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="15" t="s">
         <v>222</v>
       </c>
       <c r="B59">
@@ -7007,7 +7027,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="15" t="s">
         <v>223</v>
       </c>
       <c r="B60">
@@ -7033,7 +7053,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="15" t="s">
         <v>224</v>
       </c>
       <c r="B61">
@@ -7059,7 +7079,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="15" t="s">
         <v>225</v>
       </c>
       <c r="B62">
@@ -7085,7 +7105,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B63">
@@ -7111,7 +7131,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B64">
@@ -7137,7 +7157,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="15" t="s">
         <v>228</v>
       </c>
       <c r="B65">
@@ -7163,7 +7183,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="15" t="s">
         <v>229</v>
       </c>
       <c r="B66">
@@ -7189,7 +7209,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="15" t="s">
         <v>230</v>
       </c>
       <c r="B67">
@@ -7215,7 +7235,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="15" t="s">
         <v>231</v>
       </c>
       <c r="B68">
@@ -7241,7 +7261,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="15" t="s">
         <v>232</v>
       </c>
       <c r="B69">
@@ -7267,7 +7287,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="15" t="s">
         <v>233</v>
       </c>
       <c r="B70">
@@ -7293,7 +7313,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="15" t="s">
         <v>234</v>
       </c>
       <c r="B71">
@@ -7319,7 +7339,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="15" t="s">
         <v>235</v>
       </c>
       <c r="B72">
@@ -7345,7 +7365,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B73">
@@ -7371,7 +7391,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="15" t="s">
         <v>237</v>
       </c>
       <c r="B74">
@@ -7397,7 +7417,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="15" t="s">
         <v>238</v>
       </c>
       <c r="B75">
@@ -7423,7 +7443,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="15" t="s">
         <v>239</v>
       </c>
       <c r="B76">
@@ -7449,7 +7469,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="15" t="s">
         <v>240</v>
       </c>
       <c r="B77">
@@ -7475,7 +7495,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="15" t="s">
         <v>241</v>
       </c>
       <c r="B78">
@@ -7501,7 +7521,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="15" t="s">
         <v>242</v>
       </c>
       <c r="B79">
@@ -7527,7 +7547,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B80">
@@ -7572,33 +7592,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>244</v>
       </c>
       <c r="B2">
@@ -7624,7 +7644,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>245</v>
       </c>
       <c r="B3">
@@ -7650,7 +7670,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="17" t="s">
         <v>246</v>
       </c>
       <c r="B4">
@@ -7676,7 +7696,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="17" t="s">
         <v>247</v>
       </c>
       <c r="B5">
@@ -7702,7 +7722,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="17" t="s">
         <v>248</v>
       </c>
       <c r="B6">
@@ -7728,7 +7748,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="17" t="s">
         <v>249</v>
       </c>
       <c r="B7">
@@ -7754,7 +7774,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="17" t="s">
         <v>250</v>
       </c>
       <c r="B8">
@@ -7780,7 +7800,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="17" t="s">
         <v>251</v>
       </c>
       <c r="B9">
@@ -7806,7 +7826,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="17" t="s">
         <v>252</v>
       </c>
       <c r="B10">
@@ -7832,7 +7852,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="17" t="s">
         <v>253</v>
       </c>
       <c r="B11">
@@ -7858,7 +7878,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="17" t="s">
         <v>254</v>
       </c>
       <c r="B12">
@@ -7884,7 +7904,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="17" t="s">
         <v>255</v>
       </c>
       <c r="B13">
@@ -7910,7 +7930,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="17" t="s">
         <v>256</v>
       </c>
       <c r="B14">
@@ -7936,7 +7956,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="17" t="s">
         <v>257</v>
       </c>
       <c r="B15">
@@ -7962,7 +7982,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="17" t="s">
         <v>258</v>
       </c>
       <c r="B16">
@@ -7988,7 +8008,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B17">
@@ -8014,7 +8034,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="17" t="s">
         <v>260</v>
       </c>
       <c r="B18">
@@ -8040,7 +8060,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="17" t="s">
         <v>261</v>
       </c>
       <c r="B19">
@@ -8066,7 +8086,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="17" t="s">
         <v>262</v>
       </c>
       <c r="B20">
@@ -8092,7 +8112,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="17" t="s">
         <v>263</v>
       </c>
       <c r="B21">
@@ -8118,7 +8138,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="17" t="s">
         <v>264</v>
       </c>
       <c r="B22">
@@ -8144,7 +8164,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B23">
@@ -8170,7 +8190,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="17" t="s">
         <v>266</v>
       </c>
       <c r="B24">
@@ -8196,7 +8216,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="17" t="s">
         <v>267</v>
       </c>
       <c r="B25">
@@ -8222,7 +8242,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="17" t="s">
         <v>268</v>
       </c>
       <c r="B26">
@@ -8248,7 +8268,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="17" t="s">
         <v>269</v>
       </c>
       <c r="B27">
@@ -8274,7 +8294,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="17" t="s">
         <v>270</v>
       </c>
       <c r="B28">
@@ -8300,7 +8320,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="17" t="s">
         <v>271</v>
       </c>
       <c r="B29">
@@ -8326,7 +8346,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="17" t="s">
         <v>272</v>
       </c>
       <c r="B30">
@@ -8352,7 +8372,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="17" t="s">
         <v>273</v>
       </c>
       <c r="B31">
@@ -8378,7 +8398,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="17" t="s">
         <v>274</v>
       </c>
       <c r="B32">
@@ -8404,7 +8424,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="17" t="s">
         <v>275</v>
       </c>
       <c r="B33">
@@ -8430,7 +8450,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="17" t="s">
         <v>276</v>
       </c>
       <c r="B34">
@@ -8456,7 +8476,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="17" t="s">
         <v>277</v>
       </c>
       <c r="B35">
@@ -8482,7 +8502,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="17" t="s">
         <v>278</v>
       </c>
       <c r="B36">
@@ -8508,7 +8528,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="17" t="s">
         <v>279</v>
       </c>
       <c r="B37">
@@ -8534,7 +8554,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="17" t="s">
         <v>280</v>
       </c>
       <c r="B38">
@@ -8560,7 +8580,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="17" t="s">
         <v>281</v>
       </c>
       <c r="B39">
@@ -8586,7 +8606,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="17" t="s">
         <v>282</v>
       </c>
       <c r="B40">
@@ -8612,7 +8632,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="17" t="s">
         <v>283</v>
       </c>
       <c r="B41">
@@ -8638,7 +8658,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="17" t="s">
         <v>284</v>
       </c>
       <c r="B42">
@@ -8664,7 +8684,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B43">
@@ -8690,7 +8710,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="17" t="s">
         <v>286</v>
       </c>
       <c r="B44">
@@ -8716,7 +8736,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="17" t="s">
         <v>287</v>
       </c>
       <c r="B45">
@@ -8742,7 +8762,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="17" t="s">
         <v>288</v>
       </c>
       <c r="B46">
@@ -8768,7 +8788,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="17" t="s">
         <v>289</v>
       </c>
       <c r="B47">
@@ -8794,7 +8814,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="17" t="s">
         <v>290</v>
       </c>
       <c r="B48">
@@ -8820,7 +8840,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="17" t="s">
         <v>291</v>
       </c>
       <c r="B49">
@@ -8846,7 +8866,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="17" t="s">
         <v>292</v>
       </c>
       <c r="B50">
@@ -8872,7 +8892,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="17" t="s">
         <v>293</v>
       </c>
       <c r="B51">
@@ -8898,7 +8918,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="17" t="s">
         <v>294</v>
       </c>
       <c r="B52">
@@ -8924,7 +8944,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="17" t="s">
         <v>295</v>
       </c>
       <c r="B53">
@@ -8950,7 +8970,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="17" t="s">
         <v>296</v>
       </c>
       <c r="B54">
@@ -8976,7 +8996,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B55">
@@ -9002,7 +9022,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="17" t="s">
         <v>298</v>
       </c>
       <c r="B56">
@@ -9028,7 +9048,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="17" t="s">
         <v>299</v>
       </c>
       <c r="B57">
@@ -9054,7 +9074,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="17" t="s">
         <v>300</v>
       </c>
       <c r="B58">
@@ -9080,7 +9100,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="17" t="s">
         <v>301</v>
       </c>
       <c r="B59">
@@ -9106,7 +9126,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B60">
@@ -9132,7 +9152,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="17" t="s">
         <v>303</v>
       </c>
       <c r="B61">
@@ -9158,7 +9178,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="17" t="s">
         <v>304</v>
       </c>
       <c r="B62">
@@ -9184,7 +9204,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="17" t="s">
         <v>305</v>
       </c>
       <c r="B63">
@@ -9210,7 +9230,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="17" t="s">
         <v>306</v>
       </c>
       <c r="B64">
@@ -9236,7 +9256,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="17" t="s">
         <v>307</v>
       </c>
       <c r="B65">
@@ -9262,7 +9282,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="17" t="s">
         <v>308</v>
       </c>
       <c r="B66">
@@ -9288,7 +9308,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="17" t="s">
         <v>309</v>
       </c>
       <c r="B67">
@@ -9314,7 +9334,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="17" t="s">
         <v>310</v>
       </c>
       <c r="B68">
@@ -9340,7 +9360,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="17" t="s">
         <v>311</v>
       </c>
       <c r="B69">
@@ -9366,7 +9386,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="17" t="s">
         <v>312</v>
       </c>
       <c r="B70">
@@ -9392,7 +9412,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="17" t="s">
         <v>313</v>
       </c>
       <c r="B71">
@@ -9418,7 +9438,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="17" t="s">
         <v>314</v>
       </c>
       <c r="B72">
@@ -9444,7 +9464,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="17" t="s">
         <v>315</v>
       </c>
       <c r="B73">
@@ -9470,7 +9490,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="17" t="s">
         <v>316</v>
       </c>
       <c r="B74">
@@ -9496,7 +9516,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="17" t="s">
         <v>317</v>
       </c>
       <c r="B75">
@@ -9522,7 +9542,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="17" t="s">
         <v>318</v>
       </c>
       <c r="B76">
@@ -9548,7 +9568,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="17" t="s">
         <v>319</v>
       </c>
       <c r="B77">
@@ -9574,7 +9594,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="17" t="s">
         <v>320</v>
       </c>
       <c r="B78">
@@ -9600,7 +9620,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="17" t="s">
         <v>321</v>
       </c>
       <c r="B79">
@@ -9626,7 +9646,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="17" t="s">
         <v>322</v>
       </c>
       <c r="B80">
@@ -9671,33 +9691,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="19" t="s">
         <v>323</v>
       </c>
       <c r="B2">
@@ -9723,7 +9743,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="19" t="s">
         <v>324</v>
       </c>
       <c r="B3">
@@ -9749,7 +9769,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="19" t="s">
         <v>325</v>
       </c>
       <c r="B4">
@@ -9775,7 +9795,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="19" t="s">
         <v>326</v>
       </c>
       <c r="B5">
@@ -9801,7 +9821,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="19" t="s">
         <v>327</v>
       </c>
       <c r="B6">
@@ -9827,7 +9847,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="19" t="s">
         <v>328</v>
       </c>
       <c r="B7">
@@ -9853,7 +9873,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="19" t="s">
         <v>329</v>
       </c>
       <c r="B8">
@@ -9879,7 +9899,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="19" t="s">
         <v>330</v>
       </c>
       <c r="B9">
@@ -9905,7 +9925,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="19" t="s">
         <v>331</v>
       </c>
       <c r="B10">
@@ -9931,7 +9951,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="19" t="s">
         <v>332</v>
       </c>
       <c r="B11">
@@ -9957,7 +9977,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="19" t="s">
         <v>333</v>
       </c>
       <c r="B12">
@@ -9983,7 +10003,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="19" t="s">
         <v>334</v>
       </c>
       <c r="B13">
@@ -10009,7 +10029,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="19" t="s">
         <v>335</v>
       </c>
       <c r="B14">
@@ -10035,7 +10055,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="19" t="s">
         <v>336</v>
       </c>
       <c r="B15">
@@ -10061,7 +10081,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="19" t="s">
         <v>337</v>
       </c>
       <c r="B16">
@@ -10087,7 +10107,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="19" t="s">
         <v>338</v>
       </c>
       <c r="B17">
@@ -10113,7 +10133,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="19" t="s">
         <v>339</v>
       </c>
       <c r="B18">
@@ -10139,7 +10159,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="19" t="s">
         <v>340</v>
       </c>
       <c r="B19">
@@ -10165,7 +10185,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="19" t="s">
         <v>341</v>
       </c>
       <c r="B20">
@@ -10191,7 +10211,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="19" t="s">
         <v>342</v>
       </c>
       <c r="B21">
@@ -10217,7 +10237,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="19" t="s">
         <v>343</v>
       </c>
       <c r="B22">
@@ -10243,7 +10263,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="19" t="s">
         <v>344</v>
       </c>
       <c r="B23">
@@ -10269,7 +10289,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="19" t="s">
         <v>345</v>
       </c>
       <c r="B24">
@@ -10295,7 +10315,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="19" t="s">
         <v>346</v>
       </c>
       <c r="B25">
@@ -10321,7 +10341,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="19" t="s">
         <v>347</v>
       </c>
       <c r="B26">
@@ -10347,7 +10367,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="19" t="s">
         <v>348</v>
       </c>
       <c r="B27">
@@ -10373,7 +10393,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="19" t="s">
         <v>349</v>
       </c>
       <c r="B28">
@@ -10399,7 +10419,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="19" t="s">
         <v>350</v>
       </c>
       <c r="B29">
@@ -10425,7 +10445,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="19" t="s">
         <v>351</v>
       </c>
       <c r="B30">
@@ -10451,7 +10471,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="19" t="s">
         <v>352</v>
       </c>
       <c r="B31">
@@ -10477,7 +10497,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="19" t="s">
         <v>353</v>
       </c>
       <c r="B32">
@@ -10503,7 +10523,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="19" t="s">
         <v>354</v>
       </c>
       <c r="B33">
@@ -10529,7 +10549,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="19" t="s">
         <v>355</v>
       </c>
       <c r="B34">
@@ -10555,7 +10575,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="19" t="s">
         <v>356</v>
       </c>
       <c r="B35">
@@ -10581,7 +10601,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="19" t="s">
         <v>357</v>
       </c>
       <c r="B36">
@@ -10607,7 +10627,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="19" t="s">
         <v>358</v>
       </c>
       <c r="B37">
@@ -10633,7 +10653,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="19" t="s">
         <v>359</v>
       </c>
       <c r="B38">
@@ -10659,7 +10679,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="19" t="s">
         <v>360</v>
       </c>
       <c r="B39">
@@ -10685,7 +10705,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="19" t="s">
         <v>361</v>
       </c>
       <c r="B40">
@@ -10711,7 +10731,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="19" t="s">
         <v>362</v>
       </c>
       <c r="B41">
@@ -10737,7 +10757,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="19" t="s">
         <v>363</v>
       </c>
       <c r="B42">
@@ -10763,7 +10783,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="19" t="s">
         <v>364</v>
       </c>
       <c r="B43">
@@ -10789,7 +10809,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="19" t="s">
         <v>365</v>
       </c>
       <c r="B44">
@@ -10815,7 +10835,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="19" t="s">
         <v>366</v>
       </c>
       <c r="B45">
@@ -10841,7 +10861,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="19" t="s">
         <v>367</v>
       </c>
       <c r="B46">
@@ -10867,7 +10887,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="19" t="s">
         <v>368</v>
       </c>
       <c r="B47">
@@ -10893,7 +10913,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="19" t="s">
         <v>369</v>
       </c>
       <c r="B48">
@@ -10919,7 +10939,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="19" t="s">
         <v>370</v>
       </c>
       <c r="B49">
@@ -10945,7 +10965,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="19" t="s">
         <v>371</v>
       </c>
       <c r="B50">
@@ -10971,7 +10991,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="19" t="s">
         <v>372</v>
       </c>
       <c r="B51">
@@ -10997,7 +11017,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="19" t="s">
         <v>373</v>
       </c>
       <c r="B52">
@@ -11023,7 +11043,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="19" t="s">
         <v>374</v>
       </c>
       <c r="B53">
@@ -11049,7 +11069,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="19" t="s">
         <v>375</v>
       </c>
       <c r="B54">
@@ -11075,7 +11095,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="19" t="s">
         <v>376</v>
       </c>
       <c r="B55">
@@ -11101,7 +11121,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="19" t="s">
         <v>377</v>
       </c>
       <c r="B56">
@@ -11127,7 +11147,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="19" t="s">
         <v>378</v>
       </c>
       <c r="B57">
@@ -11153,7 +11173,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="19" t="s">
         <v>379</v>
       </c>
       <c r="B58">
@@ -11179,7 +11199,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="19" t="s">
         <v>380</v>
       </c>
       <c r="B59">
@@ -11205,7 +11225,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="19" t="s">
         <v>381</v>
       </c>
       <c r="B60">
@@ -11231,7 +11251,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="19" t="s">
         <v>382</v>
       </c>
       <c r="B61">
@@ -11257,7 +11277,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="19" t="s">
         <v>383</v>
       </c>
       <c r="B62">
@@ -11283,7 +11303,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="19" t="s">
         <v>384</v>
       </c>
       <c r="B63">
@@ -11309,7 +11329,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="19" t="s">
         <v>385</v>
       </c>
       <c r="B64">
@@ -11335,7 +11355,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="19" t="s">
         <v>386</v>
       </c>
       <c r="B65">
@@ -11361,7 +11381,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="19" t="s">
         <v>387</v>
       </c>
       <c r="B66">
@@ -11387,7 +11407,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="19" t="s">
         <v>388</v>
       </c>
       <c r="B67">
@@ -11413,7 +11433,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="19" t="s">
         <v>389</v>
       </c>
       <c r="B68">
@@ -11439,7 +11459,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="19" t="s">
         <v>390</v>
       </c>
       <c r="B69">
@@ -11465,7 +11485,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="19" t="s">
         <v>391</v>
       </c>
       <c r="B70">
@@ -11491,7 +11511,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="19" t="s">
         <v>392</v>
       </c>
       <c r="B71">
@@ -11517,7 +11537,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="19" t="s">
         <v>393</v>
       </c>
       <c r="B72">
@@ -11543,7 +11563,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B73">
@@ -11569,7 +11589,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="19" t="s">
         <v>395</v>
       </c>
       <c r="B74">
@@ -11595,7 +11615,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="19" t="s">
         <v>396</v>
       </c>
       <c r="B75">
@@ -11621,7 +11641,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="19" t="s">
         <v>397</v>
       </c>
       <c r="B76">
@@ -11647,7 +11667,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="19" t="s">
         <v>398</v>
       </c>
       <c r="B77">
@@ -11673,7 +11693,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="19" t="s">
         <v>399</v>
       </c>
       <c r="B78">
@@ -11699,7 +11719,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="19" t="s">
         <v>400</v>
       </c>
       <c r="B79">
@@ -11725,7 +11745,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="19" t="s">
         <v>401</v>
       </c>
       <c r="B80">

--- a/outputs/train-c__Spirochaetia.xlsx
+++ b/outputs/train-c__Spirochaetia.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="402">
   <si>
     <t>Row</t>
   </si>
@@ -1244,7 +1244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1272,11 +1272,31 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1298,6 +1318,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,33 +1361,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1373,7 +1413,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1399,7 +1439,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1425,7 +1465,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1451,7 +1491,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1477,7 +1517,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1503,7 +1543,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1529,7 +1569,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1555,7 +1595,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1581,7 +1621,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1607,7 +1647,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1633,7 +1673,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1659,7 +1699,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1685,7 +1725,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1711,7 +1751,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1737,7 +1777,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1763,7 +1803,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1789,7 +1829,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1815,7 +1855,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1841,7 +1881,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1867,7 +1907,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1893,7 +1933,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1919,7 +1959,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1945,7 +1985,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1971,7 +2011,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1997,7 +2037,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2023,7 +2063,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2049,7 +2089,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2075,7 +2115,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2101,7 +2141,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2127,7 +2167,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2153,7 +2193,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2179,7 +2219,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2205,7 +2245,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2231,7 +2271,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -2257,7 +2297,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -2283,7 +2323,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2309,7 +2349,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2335,7 +2375,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2361,7 +2401,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -2387,7 +2427,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -2413,7 +2453,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -2439,7 +2479,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -2465,7 +2505,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -2491,7 +2531,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -2517,7 +2557,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -2543,7 +2583,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -2569,7 +2609,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -2595,7 +2635,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -2621,7 +2661,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="31" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -2647,7 +2687,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -2673,7 +2713,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2699,7 +2739,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2725,7 +2765,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2751,7 +2791,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2777,7 +2817,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2803,7 +2843,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2829,7 +2869,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2855,7 +2895,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="31" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2881,7 +2921,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2907,7 +2947,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2933,7 +2973,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2959,7 +2999,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2985,7 +3025,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -3011,7 +3051,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -3037,7 +3077,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -3063,7 +3103,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="31" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -3089,7 +3129,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="31" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -3115,7 +3155,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="31" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -3141,7 +3181,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="31" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -3167,7 +3207,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -3193,7 +3233,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="31" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -3219,7 +3259,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="31" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -3245,7 +3285,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="31" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -3271,7 +3311,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="31" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -3297,7 +3337,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="31" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -3323,7 +3363,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -3349,7 +3389,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -3394,33 +3434,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="33" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B2">
@@ -3446,7 +3486,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B3">
@@ -3472,7 +3512,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B4">
@@ -3498,7 +3538,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B5">
@@ -3524,7 +3564,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B6">
@@ -3550,7 +3590,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B7">
@@ -3576,7 +3616,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B8">
@@ -3602,7 +3642,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B9">
@@ -3628,7 +3668,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="33" t="s">
         <v>94</v>
       </c>
       <c r="B10">
@@ -3654,7 +3694,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="33" t="s">
         <v>95</v>
       </c>
       <c r="B11">
@@ -3680,7 +3720,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="33" t="s">
         <v>96</v>
       </c>
       <c r="B12">
@@ -3706,7 +3746,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="33" t="s">
         <v>97</v>
       </c>
       <c r="B13">
@@ -3732,7 +3772,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B14">
@@ -3758,7 +3798,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="33" t="s">
         <v>99</v>
       </c>
       <c r="B15">
@@ -3784,7 +3824,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="33" t="s">
         <v>100</v>
       </c>
       <c r="B16">
@@ -3810,7 +3850,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B17">
@@ -3836,7 +3876,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B18">
@@ -3862,7 +3902,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B19">
@@ -3888,7 +3928,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B20">
@@ -3914,7 +3954,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B21">
@@ -3940,7 +3980,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B22">
@@ -3966,7 +4006,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="33" t="s">
         <v>107</v>
       </c>
       <c r="B23">
@@ -3992,7 +4032,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="33" t="s">
         <v>108</v>
       </c>
       <c r="B24">
@@ -4018,7 +4058,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B25">
@@ -4044,7 +4084,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="33" t="s">
         <v>110</v>
       </c>
       <c r="B26">
@@ -4070,7 +4110,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="33" t="s">
         <v>111</v>
       </c>
       <c r="B27">
@@ -4096,7 +4136,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="33" t="s">
         <v>112</v>
       </c>
       <c r="B28">
@@ -4122,7 +4162,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="33" t="s">
         <v>113</v>
       </c>
       <c r="B29">
@@ -4148,7 +4188,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="33" t="s">
         <v>114</v>
       </c>
       <c r="B30">
@@ -4174,7 +4214,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="33" t="s">
         <v>115</v>
       </c>
       <c r="B31">
@@ -4200,7 +4240,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="33" t="s">
         <v>116</v>
       </c>
       <c r="B32">
@@ -4226,7 +4266,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="33" t="s">
         <v>117</v>
       </c>
       <c r="B33">
@@ -4252,7 +4292,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="33" t="s">
         <v>118</v>
       </c>
       <c r="B34">
@@ -4278,7 +4318,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="33" t="s">
         <v>119</v>
       </c>
       <c r="B35">
@@ -4304,7 +4344,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="33" t="s">
         <v>120</v>
       </c>
       <c r="B36">
@@ -4330,7 +4370,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="33" t="s">
         <v>121</v>
       </c>
       <c r="B37">
@@ -4356,7 +4396,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="33" t="s">
         <v>122</v>
       </c>
       <c r="B38">
@@ -4382,7 +4422,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="33" t="s">
         <v>123</v>
       </c>
       <c r="B39">
@@ -4408,7 +4448,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="33" t="s">
         <v>124</v>
       </c>
       <c r="B40">
@@ -4434,7 +4474,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="33" t="s">
         <v>125</v>
       </c>
       <c r="B41">
@@ -4460,7 +4500,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="33" t="s">
         <v>126</v>
       </c>
       <c r="B42">
@@ -4486,7 +4526,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="33" t="s">
         <v>127</v>
       </c>
       <c r="B43">
@@ -4512,7 +4552,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="33" t="s">
         <v>128</v>
       </c>
       <c r="B44">
@@ -4538,7 +4578,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="33" t="s">
         <v>129</v>
       </c>
       <c r="B45">
@@ -4564,7 +4604,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="33" t="s">
         <v>130</v>
       </c>
       <c r="B46">
@@ -4590,7 +4630,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="33" t="s">
         <v>131</v>
       </c>
       <c r="B47">
@@ -4616,7 +4656,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="33" t="s">
         <v>132</v>
       </c>
       <c r="B48">
@@ -4642,7 +4682,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="33" t="s">
         <v>133</v>
       </c>
       <c r="B49">
@@ -4668,7 +4708,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="33" t="s">
         <v>134</v>
       </c>
       <c r="B50">
@@ -4694,7 +4734,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="33" t="s">
         <v>135</v>
       </c>
       <c r="B51">
@@ -4720,7 +4760,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="33" t="s">
         <v>136</v>
       </c>
       <c r="B52">
@@ -4746,7 +4786,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="33" t="s">
         <v>137</v>
       </c>
       <c r="B53">
@@ -4772,7 +4812,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="33" t="s">
         <v>138</v>
       </c>
       <c r="B54">
@@ -4798,7 +4838,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="33" t="s">
         <v>139</v>
       </c>
       <c r="B55">
@@ -4824,7 +4864,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="33" t="s">
         <v>140</v>
       </c>
       <c r="B56">
@@ -4850,7 +4890,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="33" t="s">
         <v>141</v>
       </c>
       <c r="B57">
@@ -4876,7 +4916,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="33" t="s">
         <v>142</v>
       </c>
       <c r="B58">
@@ -4902,7 +4942,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="33" t="s">
         <v>143</v>
       </c>
       <c r="B59">
@@ -4928,7 +4968,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B60">
@@ -4954,7 +4994,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="33" t="s">
         <v>145</v>
       </c>
       <c r="B61">
@@ -4980,7 +5020,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B62">
@@ -5006,7 +5046,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="33" t="s">
         <v>147</v>
       </c>
       <c r="B63">
@@ -5032,7 +5072,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B64">
@@ -5058,7 +5098,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B65">
@@ -5084,7 +5124,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B66">
@@ -5110,7 +5150,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B67">
@@ -5136,7 +5176,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="33" t="s">
         <v>152</v>
       </c>
       <c r="B68">
@@ -5162,7 +5202,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="33" t="s">
         <v>153</v>
       </c>
       <c r="B69">
@@ -5188,7 +5228,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="33" t="s">
         <v>154</v>
       </c>
       <c r="B70">
@@ -5214,7 +5254,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="33" t="s">
         <v>155</v>
       </c>
       <c r="B71">
@@ -5240,7 +5280,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="33" t="s">
         <v>156</v>
       </c>
       <c r="B72">
@@ -5266,7 +5306,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="33" t="s">
         <v>157</v>
       </c>
       <c r="B73">
@@ -5292,7 +5332,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="33" t="s">
         <v>158</v>
       </c>
       <c r="B74">
@@ -5318,7 +5358,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="33" t="s">
         <v>159</v>
       </c>
       <c r="B75">
@@ -5344,7 +5384,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="33" t="s">
         <v>160</v>
       </c>
       <c r="B76">
@@ -5370,7 +5410,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="33" t="s">
         <v>161</v>
       </c>
       <c r="B77">
@@ -5396,7 +5436,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="33" t="s">
         <v>162</v>
       </c>
       <c r="B78">
@@ -5422,7 +5462,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="33" t="s">
         <v>163</v>
       </c>
       <c r="B79">
@@ -5448,7 +5488,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="33" t="s">
         <v>164</v>
       </c>
       <c r="B80">
@@ -5493,33 +5533,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="35" t="s">
         <v>165</v>
       </c>
       <c r="B2">
@@ -5545,7 +5585,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>166</v>
       </c>
       <c r="B3">
@@ -5571,7 +5611,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="35" t="s">
         <v>167</v>
       </c>
       <c r="B4">
@@ -5597,7 +5637,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B5">
@@ -5623,7 +5663,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="35" t="s">
         <v>169</v>
       </c>
       <c r="B6">
@@ -5649,7 +5689,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="35" t="s">
         <v>170</v>
       </c>
       <c r="B7">
@@ -5675,7 +5715,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="35" t="s">
         <v>171</v>
       </c>
       <c r="B8">
@@ -5701,7 +5741,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="35" t="s">
         <v>172</v>
       </c>
       <c r="B9">
@@ -5727,7 +5767,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="35" t="s">
         <v>173</v>
       </c>
       <c r="B10">
@@ -5753,7 +5793,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="35" t="s">
         <v>174</v>
       </c>
       <c r="B11">
@@ -5779,7 +5819,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="35" t="s">
         <v>175</v>
       </c>
       <c r="B12">
@@ -5805,7 +5845,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="35" t="s">
         <v>176</v>
       </c>
       <c r="B13">
@@ -5831,7 +5871,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="35" t="s">
         <v>177</v>
       </c>
       <c r="B14">
@@ -5857,7 +5897,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="35" t="s">
         <v>178</v>
       </c>
       <c r="B15">
@@ -5883,7 +5923,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="35" t="s">
         <v>179</v>
       </c>
       <c r="B16">
@@ -5909,7 +5949,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="35" t="s">
         <v>180</v>
       </c>
       <c r="B17">
@@ -5935,7 +5975,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>181</v>
       </c>
       <c r="B18">
@@ -5961,7 +6001,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="35" t="s">
         <v>182</v>
       </c>
       <c r="B19">
@@ -5987,7 +6027,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="35" t="s">
         <v>183</v>
       </c>
       <c r="B20">
@@ -6013,7 +6053,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="35" t="s">
         <v>184</v>
       </c>
       <c r="B21">
@@ -6039,7 +6079,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="35" t="s">
         <v>185</v>
       </c>
       <c r="B22">
@@ -6065,7 +6105,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="35" t="s">
         <v>186</v>
       </c>
       <c r="B23">
@@ -6091,7 +6131,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="35" t="s">
         <v>187</v>
       </c>
       <c r="B24">
@@ -6117,7 +6157,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="35" t="s">
         <v>188</v>
       </c>
       <c r="B25">
@@ -6143,7 +6183,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="35" t="s">
         <v>189</v>
       </c>
       <c r="B26">
@@ -6169,7 +6209,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="35" t="s">
         <v>190</v>
       </c>
       <c r="B27">
@@ -6195,7 +6235,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="35" t="s">
         <v>191</v>
       </c>
       <c r="B28">
@@ -6221,7 +6261,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="35" t="s">
         <v>192</v>
       </c>
       <c r="B29">
@@ -6247,7 +6287,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="35" t="s">
         <v>193</v>
       </c>
       <c r="B30">
@@ -6273,7 +6313,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="35" t="s">
         <v>194</v>
       </c>
       <c r="B31">
@@ -6299,7 +6339,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="35" t="s">
         <v>195</v>
       </c>
       <c r="B32">
@@ -6325,7 +6365,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="35" t="s">
         <v>196</v>
       </c>
       <c r="B33">
@@ -6351,7 +6391,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="35" t="s">
         <v>197</v>
       </c>
       <c r="B34">
@@ -6377,7 +6417,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="35" t="s">
         <v>198</v>
       </c>
       <c r="B35">
@@ -6403,7 +6443,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="35" t="s">
         <v>199</v>
       </c>
       <c r="B36">
@@ -6429,7 +6469,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="35" t="s">
         <v>200</v>
       </c>
       <c r="B37">
@@ -6455,7 +6495,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="35" t="s">
         <v>201</v>
       </c>
       <c r="B38">
@@ -6481,7 +6521,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="35" t="s">
         <v>202</v>
       </c>
       <c r="B39">
@@ -6507,7 +6547,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="35" t="s">
         <v>203</v>
       </c>
       <c r="B40">
@@ -6533,7 +6573,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="35" t="s">
         <v>204</v>
       </c>
       <c r="B41">
@@ -6559,7 +6599,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="35" t="s">
         <v>205</v>
       </c>
       <c r="B42">
@@ -6585,7 +6625,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="35" t="s">
         <v>206</v>
       </c>
       <c r="B43">
@@ -6611,7 +6651,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="35" t="s">
         <v>207</v>
       </c>
       <c r="B44">
@@ -6637,7 +6677,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="35" t="s">
         <v>208</v>
       </c>
       <c r="B45">
@@ -6663,7 +6703,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="35" t="s">
         <v>209</v>
       </c>
       <c r="B46">
@@ -6689,7 +6729,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="35" t="s">
         <v>210</v>
       </c>
       <c r="B47">
@@ -6715,7 +6755,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="35" t="s">
         <v>211</v>
       </c>
       <c r="B48">
@@ -6741,7 +6781,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="35" t="s">
         <v>212</v>
       </c>
       <c r="B49">
@@ -6767,7 +6807,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="35" t="s">
         <v>213</v>
       </c>
       <c r="B50">
@@ -6793,7 +6833,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="35" t="s">
         <v>214</v>
       </c>
       <c r="B51">
@@ -6819,7 +6859,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="35" t="s">
         <v>215</v>
       </c>
       <c r="B52">
@@ -6845,7 +6885,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="35" t="s">
         <v>216</v>
       </c>
       <c r="B53">
@@ -6871,7 +6911,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="35" t="s">
         <v>217</v>
       </c>
       <c r="B54">
@@ -6897,7 +6937,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="35" t="s">
         <v>218</v>
       </c>
       <c r="B55">
@@ -6923,7 +6963,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="35" t="s">
         <v>219</v>
       </c>
       <c r="B56">
@@ -6949,7 +6989,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="35" t="s">
         <v>220</v>
       </c>
       <c r="B57">
@@ -6975,7 +7015,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="35" t="s">
         <v>221</v>
       </c>
       <c r="B58">
@@ -7001,7 +7041,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="35" t="s">
         <v>222</v>
       </c>
       <c r="B59">
@@ -7027,7 +7067,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="35" t="s">
         <v>223</v>
       </c>
       <c r="B60">
@@ -7053,7 +7093,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="35" t="s">
         <v>224</v>
       </c>
       <c r="B61">
@@ -7079,7 +7119,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="35" t="s">
         <v>225</v>
       </c>
       <c r="B62">
@@ -7105,7 +7145,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="35" t="s">
         <v>226</v>
       </c>
       <c r="B63">
@@ -7131,7 +7171,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="35" t="s">
         <v>227</v>
       </c>
       <c r="B64">
@@ -7157,7 +7197,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="35" t="s">
         <v>228</v>
       </c>
       <c r="B65">
@@ -7183,7 +7223,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B66">
@@ -7209,7 +7249,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="35" t="s">
         <v>230</v>
       </c>
       <c r="B67">
@@ -7235,7 +7275,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="35" t="s">
         <v>231</v>
       </c>
       <c r="B68">
@@ -7261,7 +7301,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="35" t="s">
         <v>232</v>
       </c>
       <c r="B69">
@@ -7287,7 +7327,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="35" t="s">
         <v>233</v>
       </c>
       <c r="B70">
@@ -7313,7 +7353,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="35" t="s">
         <v>234</v>
       </c>
       <c r="B71">
@@ -7339,7 +7379,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="35" t="s">
         <v>235</v>
       </c>
       <c r="B72">
@@ -7365,7 +7405,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="35" t="s">
         <v>236</v>
       </c>
       <c r="B73">
@@ -7391,7 +7431,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="35" t="s">
         <v>237</v>
       </c>
       <c r="B74">
@@ -7417,7 +7457,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="35" t="s">
         <v>238</v>
       </c>
       <c r="B75">
@@ -7443,7 +7483,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="35" t="s">
         <v>239</v>
       </c>
       <c r="B76">
@@ -7469,7 +7509,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="35" t="s">
         <v>240</v>
       </c>
       <c r="B77">
@@ -7495,7 +7535,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="35" t="s">
         <v>241</v>
       </c>
       <c r="B78">
@@ -7521,7 +7561,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="35" t="s">
         <v>242</v>
       </c>
       <c r="B79">
@@ -7547,7 +7587,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="35" t="s">
         <v>243</v>
       </c>
       <c r="B80">
@@ -7592,33 +7632,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="37" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="37" t="s">
         <v>244</v>
       </c>
       <c r="B2">
@@ -7644,7 +7684,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="37" t="s">
         <v>245</v>
       </c>
       <c r="B3">
@@ -7670,7 +7710,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="37" t="s">
         <v>246</v>
       </c>
       <c r="B4">
@@ -7696,7 +7736,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="37" t="s">
         <v>247</v>
       </c>
       <c r="B5">
@@ -7722,7 +7762,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="37" t="s">
         <v>248</v>
       </c>
       <c r="B6">
@@ -7748,7 +7788,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="37" t="s">
         <v>249</v>
       </c>
       <c r="B7">
@@ -7774,7 +7814,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="37" t="s">
         <v>250</v>
       </c>
       <c r="B8">
@@ -7800,7 +7840,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="37" t="s">
         <v>251</v>
       </c>
       <c r="B9">
@@ -7826,7 +7866,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="37" t="s">
         <v>252</v>
       </c>
       <c r="B10">
@@ -7852,7 +7892,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="37" t="s">
         <v>253</v>
       </c>
       <c r="B11">
@@ -7878,7 +7918,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B12">
@@ -7904,7 +7944,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B13">
@@ -7930,7 +7970,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="37" t="s">
         <v>256</v>
       </c>
       <c r="B14">
@@ -7956,7 +7996,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="37" t="s">
         <v>257</v>
       </c>
       <c r="B15">
@@ -7982,7 +8022,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B16">
@@ -8008,7 +8048,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="37" t="s">
         <v>259</v>
       </c>
       <c r="B17">
@@ -8034,7 +8074,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="37" t="s">
         <v>260</v>
       </c>
       <c r="B18">
@@ -8060,7 +8100,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="37" t="s">
         <v>261</v>
       </c>
       <c r="B19">
@@ -8086,7 +8126,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B20">
@@ -8112,7 +8152,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="37" t="s">
         <v>263</v>
       </c>
       <c r="B21">
@@ -8138,7 +8178,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B22">
@@ -8164,7 +8204,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="37" t="s">
         <v>265</v>
       </c>
       <c r="B23">
@@ -8190,7 +8230,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="37" t="s">
         <v>266</v>
       </c>
       <c r="B24">
@@ -8216,7 +8256,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="37" t="s">
         <v>267</v>
       </c>
       <c r="B25">
@@ -8242,7 +8282,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="37" t="s">
         <v>268</v>
       </c>
       <c r="B26">
@@ -8268,7 +8308,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="37" t="s">
         <v>269</v>
       </c>
       <c r="B27">
@@ -8294,7 +8334,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="37" t="s">
         <v>270</v>
       </c>
       <c r="B28">
@@ -8320,7 +8360,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="37" t="s">
         <v>271</v>
       </c>
       <c r="B29">
@@ -8346,7 +8386,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="37" t="s">
         <v>272</v>
       </c>
       <c r="B30">
@@ -8372,7 +8412,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="37" t="s">
         <v>273</v>
       </c>
       <c r="B31">
@@ -8398,7 +8438,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="37" t="s">
         <v>274</v>
       </c>
       <c r="B32">
@@ -8424,7 +8464,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="37" t="s">
         <v>275</v>
       </c>
       <c r="B33">
@@ -8450,7 +8490,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="37" t="s">
         <v>276</v>
       </c>
       <c r="B34">
@@ -8476,7 +8516,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="37" t="s">
         <v>277</v>
       </c>
       <c r="B35">
@@ -8502,7 +8542,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="37" t="s">
         <v>278</v>
       </c>
       <c r="B36">
@@ -8528,7 +8568,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="37" t="s">
         <v>279</v>
       </c>
       <c r="B37">
@@ -8554,7 +8594,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="37" t="s">
         <v>280</v>
       </c>
       <c r="B38">
@@ -8580,7 +8620,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="37" t="s">
         <v>281</v>
       </c>
       <c r="B39">
@@ -8606,7 +8646,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="37" t="s">
         <v>282</v>
       </c>
       <c r="B40">
@@ -8632,7 +8672,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="37" t="s">
         <v>283</v>
       </c>
       <c r="B41">
@@ -8658,7 +8698,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="37" t="s">
         <v>284</v>
       </c>
       <c r="B42">
@@ -8684,7 +8724,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="37" t="s">
         <v>285</v>
       </c>
       <c r="B43">
@@ -8710,7 +8750,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="37" t="s">
         <v>286</v>
       </c>
       <c r="B44">
@@ -8736,7 +8776,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="37" t="s">
         <v>287</v>
       </c>
       <c r="B45">
@@ -8762,7 +8802,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B46">
@@ -8788,7 +8828,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="37" t="s">
         <v>289</v>
       </c>
       <c r="B47">
@@ -8814,7 +8854,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="37" t="s">
         <v>290</v>
       </c>
       <c r="B48">
@@ -8840,7 +8880,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="37" t="s">
         <v>291</v>
       </c>
       <c r="B49">
@@ -8866,7 +8906,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="37" t="s">
         <v>292</v>
       </c>
       <c r="B50">
@@ -8892,7 +8932,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B51">
@@ -8918,7 +8958,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B52">
@@ -8944,7 +8984,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="37" t="s">
         <v>295</v>
       </c>
       <c r="B53">
@@ -8970,7 +9010,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="37" t="s">
         <v>296</v>
       </c>
       <c r="B54">
@@ -8996,7 +9036,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="37" t="s">
         <v>297</v>
       </c>
       <c r="B55">
@@ -9022,7 +9062,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="37" t="s">
         <v>298</v>
       </c>
       <c r="B56">
@@ -9048,7 +9088,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="37" t="s">
         <v>299</v>
       </c>
       <c r="B57">
@@ -9074,7 +9114,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="37" t="s">
         <v>300</v>
       </c>
       <c r="B58">
@@ -9100,7 +9140,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="37" t="s">
         <v>301</v>
       </c>
       <c r="B59">
@@ -9126,7 +9166,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="37" t="s">
         <v>302</v>
       </c>
       <c r="B60">
@@ -9152,7 +9192,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="37" t="s">
         <v>303</v>
       </c>
       <c r="B61">
@@ -9178,7 +9218,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="37" t="s">
         <v>304</v>
       </c>
       <c r="B62">
@@ -9204,7 +9244,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="37" t="s">
         <v>305</v>
       </c>
       <c r="B63">
@@ -9230,7 +9270,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="37" t="s">
         <v>306</v>
       </c>
       <c r="B64">
@@ -9256,7 +9296,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="37" t="s">
         <v>307</v>
       </c>
       <c r="B65">
@@ -9282,7 +9322,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="37" t="s">
         <v>308</v>
       </c>
       <c r="B66">
@@ -9308,7 +9348,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="37" t="s">
         <v>309</v>
       </c>
       <c r="B67">
@@ -9334,7 +9374,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="37" t="s">
         <v>310</v>
       </c>
       <c r="B68">
@@ -9360,7 +9400,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="37" t="s">
         <v>311</v>
       </c>
       <c r="B69">
@@ -9386,7 +9426,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="37" t="s">
         <v>312</v>
       </c>
       <c r="B70">
@@ -9412,7 +9452,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="37" t="s">
         <v>313</v>
       </c>
       <c r="B71">
@@ -9438,7 +9478,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="37" t="s">
         <v>314</v>
       </c>
       <c r="B72">
@@ -9464,7 +9504,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="37" t="s">
         <v>315</v>
       </c>
       <c r="B73">
@@ -9490,7 +9530,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="37" t="s">
         <v>316</v>
       </c>
       <c r="B74">
@@ -9516,7 +9556,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="37" t="s">
         <v>317</v>
       </c>
       <c r="B75">
@@ -9542,7 +9582,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="37" t="s">
         <v>318</v>
       </c>
       <c r="B76">
@@ -9568,7 +9608,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="37" t="s">
         <v>319</v>
       </c>
       <c r="B77">
@@ -9594,7 +9634,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="37" t="s">
         <v>320</v>
       </c>
       <c r="B78">
@@ -9620,7 +9660,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="37" t="s">
         <v>321</v>
       </c>
       <c r="B79">
@@ -9646,7 +9686,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="37" t="s">
         <v>322</v>
       </c>
       <c r="B80">
@@ -9691,33 +9731,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="39" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="39" t="s">
         <v>323</v>
       </c>
       <c r="B2">
@@ -9743,7 +9783,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="39" t="s">
         <v>324</v>
       </c>
       <c r="B3">
@@ -9769,7 +9809,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="39" t="s">
         <v>325</v>
       </c>
       <c r="B4">
@@ -9795,7 +9835,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="39" t="s">
         <v>326</v>
       </c>
       <c r="B5">
@@ -9821,7 +9861,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="39" t="s">
         <v>327</v>
       </c>
       <c r="B6">
@@ -9847,7 +9887,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="39" t="s">
         <v>328</v>
       </c>
       <c r="B7">
@@ -9873,7 +9913,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="39" t="s">
         <v>329</v>
       </c>
       <c r="B8">
@@ -9899,7 +9939,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="39" t="s">
         <v>330</v>
       </c>
       <c r="B9">
@@ -9925,7 +9965,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="39" t="s">
         <v>331</v>
       </c>
       <c r="B10">
@@ -9951,7 +9991,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="39" t="s">
         <v>332</v>
       </c>
       <c r="B11">
@@ -9977,7 +10017,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="39" t="s">
         <v>333</v>
       </c>
       <c r="B12">
@@ -10003,7 +10043,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B13">
@@ -10029,7 +10069,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="39" t="s">
         <v>335</v>
       </c>
       <c r="B14">
@@ -10055,7 +10095,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="39" t="s">
         <v>336</v>
       </c>
       <c r="B15">
@@ -10081,7 +10121,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="39" t="s">
         <v>337</v>
       </c>
       <c r="B16">
@@ -10107,7 +10147,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="39" t="s">
         <v>338</v>
       </c>
       <c r="B17">
@@ -10133,7 +10173,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="39" t="s">
         <v>339</v>
       </c>
       <c r="B18">
@@ -10159,7 +10199,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="39" t="s">
         <v>340</v>
       </c>
       <c r="B19">
@@ -10185,7 +10225,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="39" t="s">
         <v>341</v>
       </c>
       <c r="B20">
@@ -10211,7 +10251,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="39" t="s">
         <v>342</v>
       </c>
       <c r="B21">
@@ -10237,7 +10277,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="39" t="s">
         <v>343</v>
       </c>
       <c r="B22">
@@ -10263,7 +10303,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="39" t="s">
         <v>344</v>
       </c>
       <c r="B23">
@@ -10289,7 +10329,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="39" t="s">
         <v>345</v>
       </c>
       <c r="B24">
@@ -10315,7 +10355,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="39" t="s">
         <v>346</v>
       </c>
       <c r="B25">
@@ -10341,7 +10381,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="39" t="s">
         <v>347</v>
       </c>
       <c r="B26">
@@ -10367,7 +10407,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="39" t="s">
         <v>348</v>
       </c>
       <c r="B27">
@@ -10393,7 +10433,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="39" t="s">
         <v>349</v>
       </c>
       <c r="B28">
@@ -10419,7 +10459,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="39" t="s">
         <v>350</v>
       </c>
       <c r="B29">
@@ -10445,7 +10485,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="39" t="s">
         <v>351</v>
       </c>
       <c r="B30">
@@ -10471,7 +10511,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="39" t="s">
         <v>352</v>
       </c>
       <c r="B31">
@@ -10497,7 +10537,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="39" t="s">
         <v>353</v>
       </c>
       <c r="B32">
@@ -10523,7 +10563,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="39" t="s">
         <v>354</v>
       </c>
       <c r="B33">
@@ -10549,7 +10589,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="39" t="s">
         <v>355</v>
       </c>
       <c r="B34">
@@ -10575,7 +10615,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="39" t="s">
         <v>356</v>
       </c>
       <c r="B35">
@@ -10601,7 +10641,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="39" t="s">
         <v>357</v>
       </c>
       <c r="B36">
@@ -10627,7 +10667,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="39" t="s">
         <v>358</v>
       </c>
       <c r="B37">
@@ -10653,7 +10693,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="39" t="s">
         <v>359</v>
       </c>
       <c r="B38">
@@ -10679,7 +10719,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="39" t="s">
         <v>360</v>
       </c>
       <c r="B39">
@@ -10705,7 +10745,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="39" t="s">
         <v>361</v>
       </c>
       <c r="B40">
@@ -10731,7 +10771,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="39" t="s">
         <v>362</v>
       </c>
       <c r="B41">
@@ -10757,7 +10797,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="39" t="s">
         <v>363</v>
       </c>
       <c r="B42">
@@ -10783,7 +10823,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="39" t="s">
         <v>364</v>
       </c>
       <c r="B43">
@@ -10809,7 +10849,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="39" t="s">
         <v>365</v>
       </c>
       <c r="B44">
@@ -10835,7 +10875,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="39" t="s">
         <v>366</v>
       </c>
       <c r="B45">
@@ -10861,7 +10901,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="39" t="s">
         <v>367</v>
       </c>
       <c r="B46">
@@ -10887,7 +10927,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="39" t="s">
         <v>368</v>
       </c>
       <c r="B47">
@@ -10913,7 +10953,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="39" t="s">
         <v>369</v>
       </c>
       <c r="B48">
@@ -10939,7 +10979,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="39" t="s">
         <v>370</v>
       </c>
       <c r="B49">
@@ -10965,7 +11005,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="39" t="s">
         <v>371</v>
       </c>
       <c r="B50">
@@ -10991,7 +11031,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="39" t="s">
         <v>372</v>
       </c>
       <c r="B51">
@@ -11017,7 +11057,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="39" t="s">
         <v>373</v>
       </c>
       <c r="B52">
@@ -11043,7 +11083,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="39" t="s">
         <v>374</v>
       </c>
       <c r="B53">
@@ -11069,7 +11109,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="39" t="s">
         <v>375</v>
       </c>
       <c r="B54">
@@ -11095,7 +11135,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="39" t="s">
         <v>376</v>
       </c>
       <c r="B55">
@@ -11121,7 +11161,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="39" t="s">
         <v>377</v>
       </c>
       <c r="B56">
@@ -11147,7 +11187,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="39" t="s">
         <v>378</v>
       </c>
       <c r="B57">
@@ -11173,7 +11213,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="39" t="s">
         <v>379</v>
       </c>
       <c r="B58">
@@ -11199,7 +11239,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="39" t="s">
         <v>380</v>
       </c>
       <c r="B59">
@@ -11225,7 +11265,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="39" t="s">
         <v>381</v>
       </c>
       <c r="B60">
@@ -11251,7 +11291,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="39" t="s">
         <v>382</v>
       </c>
       <c r="B61">
@@ -11277,7 +11317,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="39" t="s">
         <v>383</v>
       </c>
       <c r="B62">
@@ -11303,7 +11343,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="39" t="s">
         <v>384</v>
       </c>
       <c r="B63">
@@ -11329,7 +11369,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="39" t="s">
         <v>385</v>
       </c>
       <c r="B64">
@@ -11355,7 +11395,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="39" t="s">
         <v>386</v>
       </c>
       <c r="B65">
@@ -11381,7 +11421,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="39" t="s">
         <v>387</v>
       </c>
       <c r="B66">
@@ -11407,7 +11447,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="39" t="s">
         <v>388</v>
       </c>
       <c r="B67">
@@ -11433,7 +11473,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="39" t="s">
         <v>389</v>
       </c>
       <c r="B68">
@@ -11459,7 +11499,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="39" t="s">
         <v>390</v>
       </c>
       <c r="B69">
@@ -11485,7 +11525,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="39" t="s">
         <v>391</v>
       </c>
       <c r="B70">
@@ -11511,7 +11551,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="39" t="s">
         <v>392</v>
       </c>
       <c r="B71">
@@ -11537,7 +11577,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="39" t="s">
         <v>393</v>
       </c>
       <c r="B72">
@@ -11563,7 +11603,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="39" t="s">
         <v>394</v>
       </c>
       <c r="B73">
@@ -11589,7 +11629,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="39" t="s">
         <v>395</v>
       </c>
       <c r="B74">
@@ -11615,7 +11655,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="39" t="s">
         <v>396</v>
       </c>
       <c r="B75">
@@ -11641,7 +11681,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="39" t="s">
         <v>397</v>
       </c>
       <c r="B76">
@@ -11667,7 +11707,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="39" t="s">
         <v>398</v>
       </c>
       <c r="B77">
@@ -11693,7 +11733,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="39" t="s">
         <v>399</v>
       </c>
       <c r="B78">
@@ -11719,7 +11759,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="39" t="s">
         <v>400</v>
       </c>
       <c r="B79">
@@ -11745,7 +11785,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="39" t="s">
         <v>401</v>
       </c>
       <c r="B80">
